--- a/data/TestScript.xlsx
+++ b/data/TestScript.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07e914d1be9f939/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10486089DA71325BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548643BC-6A20-4033-863D-4054D83BCE5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{48229A06-1D87-4000-AD2B-0E45FD160939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sl No.</t>
   </si>
@@ -49,6 +45,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -416,6 +415,9 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
